--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_108_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_108_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[5.085588052114854, 5.654257056863273]</t>
+          <t>[5.081562303918537, 5.6582828050595895]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[0.44655270951926873, 0.5723422051585008]</t>
+          <t>[0.45913165908319176, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,23 +617,23 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.15308292189323058, 0.4539765497027348]</t>
+          <t>[0.1531085788362052, 0.4539508927597602]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.0001913364351788793</v>
+        <v>0.0001909217911069128</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001913364351788793</v>
+        <v>0.0001909217911069128</v>
       </c>
       <c r="W2" t="n">
         <v>21.85189189189244</v>
       </c>
       <c r="X2" t="n">
-        <v>21.61385385385439</v>
+        <v>21.661461461462</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.08992992993048</v>
+        <v>22.04232232232287</v>
       </c>
     </row>
   </sheetData>
